--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Agrn-Musk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Agrn-Musk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.59657533333333</v>
+        <v>8.382531</v>
       </c>
       <c r="H2">
-        <v>46.789726</v>
+        <v>25.147593</v>
       </c>
       <c r="I2">
-        <v>0.4757744772251148</v>
+        <v>0.3278601051951505</v>
       </c>
       <c r="J2">
-        <v>0.475774477225115</v>
+        <v>0.3278601051951506</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3212813333333334</v>
+        <v>8.908863</v>
       </c>
       <c r="N2">
-        <v>0.9638440000000001</v>
+        <v>26.726589</v>
       </c>
       <c r="O2">
-        <v>0.02198075961745464</v>
+        <v>0.6232066589444157</v>
       </c>
       <c r="P2">
-        <v>0.02198075961745464</v>
+        <v>0.6232066589444157</v>
       </c>
       <c r="Q2">
-        <v>5.010888518527111</v>
+        <v>74.67882027225301</v>
       </c>
       <c r="R2">
-        <v>45.09799666674401</v>
+        <v>672.1093824502771</v>
       </c>
       <c r="S2">
-        <v>0.0104578844160054</v>
+        <v>0.2043246007598344</v>
       </c>
       <c r="T2">
-        <v>0.0104578844160054</v>
+        <v>0.2043246007598345</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.59657533333333</v>
+        <v>8.382531</v>
       </c>
       <c r="H3">
-        <v>46.789726</v>
+        <v>25.147593</v>
       </c>
       <c r="I3">
-        <v>0.4757744772251148</v>
+        <v>0.3278601051951505</v>
       </c>
       <c r="J3">
-        <v>0.475774477225115</v>
+        <v>0.3278601051951506</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.908863</v>
+        <v>5.386335666666667</v>
       </c>
       <c r="N3">
-        <v>26.726589</v>
+        <v>16.159007</v>
       </c>
       <c r="O3">
-        <v>0.6095081031821615</v>
+        <v>0.3767933410555842</v>
       </c>
       <c r="P3">
-        <v>0.6095081031821615</v>
+        <v>0.3767933410555843</v>
       </c>
       <c r="Q3">
-        <v>138.947752913846</v>
+        <v>45.151125702239</v>
       </c>
       <c r="R3">
-        <v>1250.529776224614</v>
+        <v>406.360131320151</v>
       </c>
       <c r="S3">
-        <v>0.2899883991559642</v>
+        <v>0.1235355044353161</v>
       </c>
       <c r="T3">
-        <v>0.2899883991559643</v>
+        <v>0.1235355044353161</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.59657533333333</v>
+        <v>6.399531333333333</v>
       </c>
       <c r="H4">
-        <v>46.789726</v>
+        <v>19.198594</v>
       </c>
       <c r="I4">
-        <v>0.4757744772251148</v>
+        <v>0.2503004183517279</v>
       </c>
       <c r="J4">
-        <v>0.475774477225115</v>
+        <v>0.250300418351728</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.386335666666667</v>
+        <v>8.908863</v>
       </c>
       <c r="N4">
-        <v>16.159007</v>
+        <v>26.726589</v>
       </c>
       <c r="O4">
-        <v>0.3685111372003839</v>
+        <v>0.6232066589444157</v>
       </c>
       <c r="P4">
-        <v>0.3685111372003838</v>
+        <v>0.6232066589444157</v>
       </c>
       <c r="Q4">
-        <v>84.00838999578689</v>
+        <v>57.012547912874</v>
       </c>
       <c r="R4">
-        <v>756.075509962082</v>
+        <v>513.112931215866</v>
       </c>
       <c r="S4">
-        <v>0.1753281936531452</v>
+        <v>0.1559888874533699</v>
       </c>
       <c r="T4">
-        <v>0.1753281936531452</v>
+        <v>0.1559888874533699</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>19.198594</v>
       </c>
       <c r="I5">
-        <v>0.1952180917624358</v>
+        <v>0.2503004183517279</v>
       </c>
       <c r="J5">
-        <v>0.1952180917624358</v>
+        <v>0.250300418351728</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3212813333333334</v>
+        <v>5.386335666666667</v>
       </c>
       <c r="N5">
-        <v>0.9638440000000001</v>
+        <v>16.159007</v>
       </c>
       <c r="O5">
-        <v>0.02198075961745464</v>
+        <v>0.3767933410555842</v>
       </c>
       <c r="P5">
-        <v>0.02198075961745464</v>
+        <v>0.3767933410555843</v>
       </c>
       <c r="Q5">
-        <v>2.056049959481778</v>
+        <v>34.47002387068422</v>
       </c>
       <c r="R5">
-        <v>18.504449635336</v>
+        <v>310.230214836158</v>
       </c>
       <c r="S5">
-        <v>0.004291041948008302</v>
+        <v>0.09431153089835803</v>
       </c>
       <c r="T5">
-        <v>0.004291041948008303</v>
+        <v>0.09431153089835807</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.399531333333333</v>
+        <v>10.78533933333333</v>
       </c>
       <c r="H6">
-        <v>19.198594</v>
+        <v>32.356018</v>
       </c>
       <c r="I6">
-        <v>0.1952180917624358</v>
+        <v>0.4218394764531215</v>
       </c>
       <c r="J6">
-        <v>0.1952180917624358</v>
+        <v>0.4218394764531215</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>26.726589</v>
       </c>
       <c r="O6">
-        <v>0.6095081031821615</v>
+        <v>0.6232066589444157</v>
       </c>
       <c r="P6">
-        <v>0.6095081031821615</v>
+        <v>0.6232066589444157</v>
       </c>
       <c r="Q6">
-        <v>57.012547912874</v>
+        <v>96.085110529178</v>
       </c>
       <c r="R6">
-        <v>513.112931215866</v>
+        <v>864.765994762602</v>
       </c>
       <c r="S6">
-        <v>0.1189870088169634</v>
+        <v>0.2628931707312114</v>
       </c>
       <c r="T6">
-        <v>0.1189870088169634</v>
+        <v>0.2628931707312114</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.399531333333333</v>
+        <v>10.78533933333333</v>
       </c>
       <c r="H7">
-        <v>19.198594</v>
+        <v>32.356018</v>
       </c>
       <c r="I7">
-        <v>0.1952180917624358</v>
+        <v>0.4218394764531215</v>
       </c>
       <c r="J7">
-        <v>0.1952180917624358</v>
+        <v>0.4218394764531215</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,208 +868,22 @@
         <v>16.159007</v>
       </c>
       <c r="O7">
-        <v>0.3685111372003839</v>
+        <v>0.3767933410555842</v>
       </c>
       <c r="P7">
-        <v>0.3685111372003838</v>
+        <v>0.3767933410555843</v>
       </c>
       <c r="Q7">
-        <v>34.47002387068422</v>
+        <v>58.09345792823622</v>
       </c>
       <c r="R7">
-        <v>310.230214836158</v>
+        <v>522.8411213541259</v>
       </c>
       <c r="S7">
-        <v>0.07194004099746409</v>
+        <v>0.1589463057219101</v>
       </c>
       <c r="T7">
-        <v>0.07194004099746409</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>10.78533933333333</v>
-      </c>
-      <c r="H8">
-        <v>32.356018</v>
-      </c>
-      <c r="I8">
-        <v>0.3290074310124493</v>
-      </c>
-      <c r="J8">
-        <v>0.3290074310124493</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.3212813333333334</v>
-      </c>
-      <c r="N8">
-        <v>0.9638440000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.02198075961745464</v>
-      </c>
-      <c r="P8">
-        <v>0.02198075961745464</v>
-      </c>
-      <c r="Q8">
-        <v>3.465128201465778</v>
-      </c>
-      <c r="R8">
-        <v>31.186153813192</v>
-      </c>
-      <c r="S8">
-        <v>0.007231833253440938</v>
-      </c>
-      <c r="T8">
-        <v>0.007231833253440939</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>10.78533933333333</v>
-      </c>
-      <c r="H9">
-        <v>32.356018</v>
-      </c>
-      <c r="I9">
-        <v>0.3290074310124493</v>
-      </c>
-      <c r="J9">
-        <v>0.3290074310124493</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>8.908863</v>
-      </c>
-      <c r="N9">
-        <v>26.726589</v>
-      </c>
-      <c r="O9">
-        <v>0.6095081031821615</v>
-      </c>
-      <c r="P9">
-        <v>0.6095081031821615</v>
-      </c>
-      <c r="Q9">
-        <v>96.085110529178</v>
-      </c>
-      <c r="R9">
-        <v>864.765994762602</v>
-      </c>
-      <c r="S9">
-        <v>0.2005326952092338</v>
-      </c>
-      <c r="T9">
-        <v>0.2005326952092339</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>10.78533933333333</v>
-      </c>
-      <c r="H10">
-        <v>32.356018</v>
-      </c>
-      <c r="I10">
-        <v>0.3290074310124493</v>
-      </c>
-      <c r="J10">
-        <v>0.3290074310124493</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>5.386335666666667</v>
-      </c>
-      <c r="N10">
-        <v>16.159007</v>
-      </c>
-      <c r="O10">
-        <v>0.3685111372003839</v>
-      </c>
-      <c r="P10">
-        <v>0.3685111372003838</v>
-      </c>
-      <c r="Q10">
-        <v>58.09345792823622</v>
-      </c>
-      <c r="R10">
-        <v>522.8411213541259</v>
-      </c>
-      <c r="S10">
-        <v>0.1212429025497745</v>
-      </c>
-      <c r="T10">
-        <v>0.1212429025497745</v>
+        <v>0.1589463057219101</v>
       </c>
     </row>
   </sheetData>
